--- a/code/result.xlsx
+++ b/code/result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parallel computing\Sathish-Vadhiyar-IISc-Summer-21\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D5E97-CC00-4CE1-86FE-CB6674CDF35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8375C4DA-0FCD-49A0-B4F5-C268448611C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22020" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5604" yWindow="-108" windowWidth="9036" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t>sources</t>
   </si>
@@ -111,10 +112,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2337,6 +2338,2540 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-2208-4D67-B522-EE12805FA78D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="863756223"/>
+        <c:axId val="863742079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="863756223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of Sink Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863742079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="863742079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Time taken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> in secs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863756223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.29212427099999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6380298137664697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7706525325775093</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.001820802688499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.185834884643501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.645399093627901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.129657030105498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.094385385513299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.502828836441001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.1297028064727</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.123257160186697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.342523574829102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.4861674308776</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.011272668838501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.2650496959686</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D45A-4970-95B1-2907BF7DE432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.92721962899999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6247382159999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8298392300000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2409052850000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.3514206409999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9301323889999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5355758670000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.575232270000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.670108320000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.50038075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.406561140000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.41145277</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.97752929</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.02614784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.861423250000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D45A-4970-95B1-2907BF7DE432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.23553443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9299247260000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8839342590000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.38215113</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.54895973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.95056009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.205939050000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.549528599999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.951680660000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.755566600000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.199486020000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.252905130000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.816810129999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.507152320000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100.050087</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D45A-4970-95B1-2907BF7DE432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>3.77706337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0546436309999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.83918834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.169859890000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.879358289999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.504530670000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.679703709999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46.496502640000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.95491457</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.073482510000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>89.662438629999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104.29906510000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>126.2657313</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>149.6316319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>176.210937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D45A-4970-95B1-2907BF7DE432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$F$2:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.1105835439999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.65926361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.401843070000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.550856109999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.057721610000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.567633389999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.404195790000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.236179590000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.46136808</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.823123219999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125.0206273</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>157.05900449999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>207.26409129999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>226.39978859999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>261.13090039999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D45A-4970-95B1-2907BF7DE432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$G$2:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>7.0264158249999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.0170505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.867351060000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.23188639</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.601503370000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58.741095540000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.330859419999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89.186447139999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.68241930000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124.918097</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>154.76285619999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>194.6113024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>236.439008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>279.20080109999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>355.45149370000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D45A-4970-95B1-2907BF7DE432}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="863756223"/>
+        <c:axId val="863742079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="863756223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Sink nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863742079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="863742079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Time taken</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> in secs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="863756223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$19:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$B$19:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.5505981000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12342286099999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20497727399999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.286019564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38448190700000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.44569039300000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50901293800000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56426143600000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67455983200000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79118370999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88927888899999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1571230889999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3485400679999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.706978798</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.674462318</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D4B-4B1E-BF34-D415E8D3530F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$19:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$C$19:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.121725321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27927637100000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52612924599999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48915028599999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65717601800000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83207750300000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97037815999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2323939799999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3320298189999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.538325071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8910555840000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4049799439999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.482100725</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8817329410000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.317999125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D4B-4B1E-BF34-D415E8D3530F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>200 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$19:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$D$19:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.27972388300000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.523851395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85333800299999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.214572191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5574355129999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.822955847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2720901969999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2780632970000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9261782169999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1816527840000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9008867739999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6041972639999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.6878237719999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0226824280000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.1623203750000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0D4B-4B1E-BF34-D415E8D3530F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>300 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$19:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$E$19:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.428558826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85879540399999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.193969727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8260657789999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3532600399999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9480156900000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5682318209999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.797621489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5385015009999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4233255390000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6337196829999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3339812760000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4097740650000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.4758927820000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.498433110000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0D4B-4B1E-BF34-D415E8D3530F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$19:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$F$19:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.614329338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.336219072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.931738138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2939341070000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0843431950000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.866512299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4793393610000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5633723740000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0046343799999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7488555909999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.4600641729999992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8712360859999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.77233028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.48158765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.84341955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0D4B-4B1E-BF34-D415E8D3530F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet2 (2)'!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Sources</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$A$19:$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet2 (2)'!$G$19:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.76953053500000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5678689480000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1722137930000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9116661549999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2002050880000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4820604319999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4877202509999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3289425369999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.033650637</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6547143459999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.2695217129999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.192703720000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.329856400000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.96270466</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.19023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0D4B-4B1E-BF34-D415E8D3530F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2746,6 +5281,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3263,6 +5878,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3841,6 +7488,87 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDF9948-3024-4006-9408-74A67F0C1307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>278130</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582930</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24AA78A5-0BF1-48CB-A006-F6A6BBD99552}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4370,6 +8098,258 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X95"/>
@@ -4746,13 +8726,13 @@
       <c r="L26" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -6251,8 +10231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F9FDCF-1E59-47DB-9FFE-D50A2B7D6349}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6261,22 +10241,22 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6629,22 +10609,774 @@
       <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>6.5505981000000005E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.121725321</v>
+      </c>
+      <c r="D19">
+        <v>0.27972388300000001</v>
+      </c>
+      <c r="E19">
+        <v>0.428558826</v>
+      </c>
+      <c r="F19">
+        <v>0.614329338</v>
+      </c>
+      <c r="G19">
+        <v>0.76953053500000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>200</v>
+      </c>
+      <c r="B20">
+        <v>0.12342286099999999</v>
+      </c>
+      <c r="C20">
+        <v>0.27927637100000002</v>
+      </c>
+      <c r="D20">
+        <v>0.523851395</v>
+      </c>
+      <c r="E20">
+        <v>0.85879540399999998</v>
+      </c>
+      <c r="F20">
+        <v>1.336219072</v>
+      </c>
+      <c r="G20">
+        <v>1.5678689480000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>300</v>
+      </c>
+      <c r="B21">
+        <v>0.20497727399999999</v>
+      </c>
+      <c r="C21">
+        <v>0.52612924599999999</v>
+      </c>
+      <c r="D21">
+        <v>0.85333800299999996</v>
+      </c>
+      <c r="E21">
+        <v>1.193969727</v>
+      </c>
+      <c r="F21">
+        <v>1.931738138</v>
+      </c>
+      <c r="G21">
+        <v>2.1722137930000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>400</v>
+      </c>
+      <c r="B22">
+        <v>0.286019564</v>
+      </c>
+      <c r="C22">
+        <v>0.48915028599999999</v>
+      </c>
+      <c r="D22">
+        <v>1.214572191</v>
+      </c>
+      <c r="E22">
+        <v>1.8260657789999999</v>
+      </c>
+      <c r="F22">
+        <v>2.2939341070000001</v>
+      </c>
+      <c r="G22">
+        <v>2.9116661549999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <v>0.38448190700000001</v>
+      </c>
+      <c r="C23">
+        <v>0.65717601800000003</v>
+      </c>
+      <c r="D23">
+        <v>1.5574355129999999</v>
+      </c>
+      <c r="E23">
+        <v>2.3532600399999999</v>
+      </c>
+      <c r="F23">
+        <v>3.0843431950000002</v>
+      </c>
+      <c r="G23">
+        <v>3.2002050880000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>600</v>
+      </c>
+      <c r="B24">
+        <v>0.44569039300000002</v>
+      </c>
+      <c r="C24">
+        <v>0.83207750300000005</v>
+      </c>
+      <c r="D24">
+        <v>1.822955847</v>
+      </c>
+      <c r="E24">
+        <v>2.9480156900000001</v>
+      </c>
+      <c r="F24">
+        <v>3.866512299</v>
+      </c>
+      <c r="G24">
+        <v>4.4820604319999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>700</v>
+      </c>
+      <c r="B25">
+        <v>0.50901293800000003</v>
+      </c>
+      <c r="C25">
+        <v>0.97037815999999999</v>
+      </c>
+      <c r="D25">
+        <v>2.2720901969999998</v>
+      </c>
+      <c r="E25">
+        <v>3.5682318209999999</v>
+      </c>
+      <c r="F25">
+        <v>4.4793393610000001</v>
+      </c>
+      <c r="G25">
+        <v>5.4877202509999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>800</v>
+      </c>
+      <c r="B26">
+        <v>0.56426143600000001</v>
+      </c>
+      <c r="C26">
+        <v>1.2323939799999999</v>
+      </c>
+      <c r="D26">
+        <v>2.2780632970000001</v>
+      </c>
+      <c r="E26">
+        <v>3.797621489</v>
+      </c>
+      <c r="F26">
+        <v>5.5633723740000001</v>
+      </c>
+      <c r="G26">
+        <v>6.3289425369999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>900</v>
+      </c>
+      <c r="B27">
+        <v>0.67455983200000003</v>
+      </c>
+      <c r="C27">
+        <v>1.3320298189999999</v>
+      </c>
+      <c r="D27">
+        <v>2.9261782169999999</v>
+      </c>
+      <c r="E27">
+        <v>4.5385015009999998</v>
+      </c>
+      <c r="F27">
+        <v>6.0046343799999997</v>
+      </c>
+      <c r="G27">
+        <v>7.033650637</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1000</v>
+      </c>
+      <c r="B28">
+        <v>0.79118370999999998</v>
+      </c>
+      <c r="C28">
+        <v>1.538325071</v>
+      </c>
+      <c r="D28">
+        <v>3.1816527840000002</v>
+      </c>
+      <c r="E28">
+        <v>5.4233255390000004</v>
+      </c>
+      <c r="F28">
+        <v>6.7488555909999999</v>
+      </c>
+      <c r="G28">
+        <v>7.6547143459999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1200</v>
+      </c>
+      <c r="B29">
+        <v>0.88927888899999996</v>
+      </c>
+      <c r="C29">
+        <v>1.8910555840000001</v>
+      </c>
+      <c r="D29">
+        <v>3.9008867739999999</v>
+      </c>
+      <c r="E29">
+        <v>5.6337196829999998</v>
+      </c>
+      <c r="F29">
+        <v>8.4600641729999992</v>
+      </c>
+      <c r="G29">
+        <v>9.2695217129999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1400</v>
+      </c>
+      <c r="B30">
+        <v>1.1571230889999999</v>
+      </c>
+      <c r="C30">
+        <v>2.4049799439999999</v>
+      </c>
+      <c r="D30">
+        <v>4.6041972639999997</v>
+      </c>
+      <c r="E30">
+        <v>7.3339812760000003</v>
+      </c>
+      <c r="F30">
+        <v>9.8712360859999997</v>
+      </c>
+      <c r="G30">
+        <v>11.192703720000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1600</v>
+      </c>
+      <c r="B31">
+        <v>1.3485400679999999</v>
+      </c>
+      <c r="C31">
+        <v>2.482100725</v>
+      </c>
+      <c r="D31">
+        <v>5.6878237719999998</v>
+      </c>
+      <c r="E31">
+        <v>8.4097740650000006</v>
+      </c>
+      <c r="F31">
+        <v>10.77233028</v>
+      </c>
+      <c r="G31">
+        <v>13.329856400000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1800</v>
+      </c>
+      <c r="B32">
+        <v>1.706978798</v>
+      </c>
+      <c r="C32">
+        <v>2.8817329410000001</v>
+      </c>
+      <c r="D32">
+        <v>6.0226824280000004</v>
+      </c>
+      <c r="E32">
+        <v>9.4758927820000007</v>
+      </c>
+      <c r="F32">
+        <v>13.48158765</v>
+      </c>
+      <c r="G32">
+        <v>15.96270466</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2000</v>
+      </c>
+      <c r="B33">
+        <v>1.674462318</v>
+      </c>
+      <c r="C33">
+        <v>3.317999125</v>
+      </c>
+      <c r="D33">
+        <v>7.1623203750000002</v>
+      </c>
+      <c r="E33">
+        <v>11.498433110000001</v>
+      </c>
+      <c r="F33">
+        <v>14.84341955</v>
+      </c>
+      <c r="G33">
+        <v>18.19023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1113F16A-38D5-49E0-A513-7EED22AF7DC5}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>0.29212427099999999</v>
+      </c>
+      <c r="C2">
+        <v>0.92721962899999999</v>
+      </c>
+      <c r="D2">
+        <v>2.23553443</v>
+      </c>
+      <c r="E2">
+        <v>3.77706337</v>
+      </c>
+      <c r="F2">
+        <v>6.1105835439999998</v>
+      </c>
+      <c r="G2">
+        <v>7.0264158249999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>5.6380298137664697</v>
+      </c>
+      <c r="C3">
+        <v>1.6247382159999999</v>
+      </c>
+      <c r="D3">
+        <v>5.9299247260000003</v>
+      </c>
+      <c r="E3">
+        <v>9.0546436309999994</v>
+      </c>
+      <c r="F3">
+        <v>13.65926361</v>
+      </c>
+      <c r="G3">
+        <v>17.0170505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>8.7706525325775093</v>
+      </c>
+      <c r="C4">
+        <v>2.8298392300000001</v>
+      </c>
+      <c r="D4">
+        <v>6.8839342590000001</v>
+      </c>
+      <c r="E4">
+        <v>17.83918834</v>
+      </c>
+      <c r="F4">
+        <v>21.401843070000002</v>
+      </c>
+      <c r="G4">
+        <v>27.867351060000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>11.001820802688499</v>
+      </c>
+      <c r="C5">
+        <v>4.2409052850000002</v>
+      </c>
+      <c r="D5">
+        <v>10.38215113</v>
+      </c>
+      <c r="E5">
+        <v>18.169859890000001</v>
+      </c>
+      <c r="F5">
+        <v>40.550856109999998</v>
+      </c>
+      <c r="G5">
+        <v>39.23188639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>16.185834884643501</v>
+      </c>
+      <c r="C6">
+        <v>5.3514206409999998</v>
+      </c>
+      <c r="D6">
+        <v>14.54895973</v>
+      </c>
+      <c r="E6">
+        <v>24.879358289999999</v>
+      </c>
+      <c r="F6">
+        <v>37.057721610000002</v>
+      </c>
+      <c r="G6">
+        <v>68.601503370000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>16.645399093627901</v>
+      </c>
+      <c r="C7">
+        <v>6.9301323889999997</v>
+      </c>
+      <c r="D7">
+        <v>17.95056009</v>
+      </c>
+      <c r="E7">
+        <v>31.504530670000001</v>
+      </c>
+      <c r="F7">
+        <v>47.567633389999997</v>
+      </c>
+      <c r="G7">
+        <v>58.741095540000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>700</v>
+      </c>
+      <c r="B8">
+        <v>27.129657030105498</v>
+      </c>
+      <c r="C8">
+        <v>8.5355758670000004</v>
+      </c>
+      <c r="D8">
+        <v>22.205939050000001</v>
+      </c>
+      <c r="E8">
+        <v>38.679703709999998</v>
+      </c>
+      <c r="F8">
+        <v>58.404195790000003</v>
+      </c>
+      <c r="G8">
+        <v>74.330859419999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>800</v>
+      </c>
+      <c r="B9">
+        <v>25.094385385513299</v>
+      </c>
+      <c r="C9">
+        <v>10.575232270000001</v>
+      </c>
+      <c r="D9">
+        <v>28.549528599999999</v>
+      </c>
+      <c r="E9">
+        <v>46.496502640000003</v>
+      </c>
+      <c r="F9">
+        <v>71.236179590000006</v>
+      </c>
+      <c r="G9">
+        <v>89.186447139999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>900</v>
+      </c>
+      <c r="B10">
+        <v>30.502828836441001</v>
+      </c>
+      <c r="C10">
+        <v>12.670108320000001</v>
+      </c>
+      <c r="D10">
+        <v>31.951680660000001</v>
+      </c>
+      <c r="E10">
+        <v>54.95491457</v>
+      </c>
+      <c r="F10">
+        <v>83.46136808</v>
+      </c>
+      <c r="G10">
+        <v>103.68241930000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>36.1297028064727</v>
+      </c>
+      <c r="C11">
+        <v>14.50038075</v>
+      </c>
+      <c r="D11">
+        <v>36.755566600000002</v>
+      </c>
+      <c r="E11">
+        <v>64.073482510000005</v>
+      </c>
+      <c r="F11">
+        <v>95.823123219999999</v>
+      </c>
+      <c r="G11">
+        <v>124.918097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1200</v>
+      </c>
+      <c r="B12">
+        <v>35.123257160186697</v>
+      </c>
+      <c r="C12">
+        <v>18.406561140000001</v>
+      </c>
+      <c r="D12">
+        <v>48.199486020000002</v>
+      </c>
+      <c r="E12">
+        <v>89.662438629999997</v>
+      </c>
+      <c r="F12">
+        <v>125.0206273</v>
+      </c>
+      <c r="G12">
+        <v>154.76285619999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1400</v>
+      </c>
+      <c r="B13">
+        <v>44.342523574829102</v>
+      </c>
+      <c r="C13">
+        <v>24.41145277</v>
+      </c>
+      <c r="D13">
+        <v>59.252905130000002</v>
+      </c>
+      <c r="E13">
+        <v>104.29906510000001</v>
+      </c>
+      <c r="F13">
+        <v>157.05900449999999</v>
+      </c>
+      <c r="G13">
+        <v>194.6113024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1600</v>
+      </c>
+      <c r="B14">
+        <v>48.4861674308776</v>
+      </c>
+      <c r="C14">
+        <v>28.97752929</v>
+      </c>
+      <c r="D14">
+        <v>71.816810129999993</v>
+      </c>
+      <c r="E14">
+        <v>126.2657313</v>
+      </c>
+      <c r="F14">
+        <v>207.26409129999999</v>
+      </c>
+      <c r="G14">
+        <v>236.439008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1800</v>
+      </c>
+      <c r="B15">
+        <v>53.011272668838501</v>
+      </c>
+      <c r="C15">
+        <v>37.02614784</v>
+      </c>
+      <c r="D15">
+        <v>86.507152320000003</v>
+      </c>
+      <c r="E15">
+        <v>149.6316319</v>
+      </c>
+      <c r="F15">
+        <v>226.39978859999999</v>
+      </c>
+      <c r="G15">
+        <v>279.20080109999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2000</v>
+      </c>
+      <c r="B16">
+        <v>58.2650496959686</v>
+      </c>
+      <c r="C16">
+        <v>39.861423250000001</v>
+      </c>
+      <c r="D16">
+        <v>100.050087</v>
+      </c>
+      <c r="E16">
+        <v>176.210937</v>
+      </c>
+      <c r="F16">
+        <v>261.13090039999997</v>
+      </c>
+      <c r="G16">
+        <v>355.45149370000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
     </row>
